--- a/raw_data/20200818_saline/20200818_Sensor3_Test_70.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_70.xlsx
@@ -1,1507 +1,1923 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCCDA57-8EA5-49EB-93B1-94A376EB739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>62656.910268</v>
       </c>
       <c r="B2" s="1">
-        <v>17.404697</v>
+        <v>17.404696999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1145.100000</v>
+        <v>1145.0999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-243.826000</v>
+        <v>-243.82599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>62666.965167</v>
+        <v>62666.965167000002</v>
       </c>
       <c r="G2" s="1">
-        <v>17.407490</v>
+        <v>17.407489999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1164.400000</v>
+        <v>1164.4000000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.248000</v>
+        <v>-217.24799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>62677.065203</v>
+        <v>62677.065202999998</v>
       </c>
       <c r="L2" s="1">
-        <v>17.410296</v>
+        <v>17.410295999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.980000</v>
+        <v>1194.98</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.805000</v>
+        <v>-152.80500000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>62687.237156</v>
+        <v>62687.237156000003</v>
       </c>
       <c r="Q2" s="1">
         <v>17.413121</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.507000</v>
+        <v>-130.50700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>62697.512802</v>
+        <v>62697.512801999997</v>
       </c>
       <c r="V2" s="1">
-        <v>17.415976</v>
+        <v>17.415976000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-109.350000</v>
+        <v>-109.35</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>62707.931241</v>
+        <v>62707.931240999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.418870</v>
+        <v>17.418869999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.814600</v>
+        <v>-91.814599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>62718.234175</v>
+        <v>62718.234174999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.421732</v>
+        <v>17.421731999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.830000</v>
+        <v>1223.83</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.008100</v>
+        <v>-87.008099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>62728.663517</v>
+        <v>62728.663517000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.424629</v>
+        <v>17.424628999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.151900</v>
+        <v>-90.151899999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>62739.561615</v>
+        <v>62739.561614999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.427656</v>
+        <v>17.427655999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1238.840000</v>
+        <v>1238.8399999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.070000</v>
+        <v>-102.07</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>62750.228608</v>
+        <v>62750.228607999998</v>
       </c>
       <c r="AU2" s="1">
         <v>17.430619</v>
       </c>
       <c r="AV2" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.446000</v>
+        <v>-121.446</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>62761.325112</v>
+        <v>62761.325111999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.433701</v>
+        <v>17.433700999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.993000</v>
+        <v>-138.99299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>62772.590211</v>
+        <v>62772.590211000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.436831</v>
+        <v>17.436831000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.710000</v>
+        <v>1297.71</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.485000</v>
+        <v>-221.48500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>62783.623252</v>
+        <v>62783.623251999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>17.439895</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.518000</v>
+        <v>-358.51799999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>62794.717734</v>
+        <v>62794.717733999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.442977</v>
+        <v>17.442976999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.428000</v>
+        <v>-580.428</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>62806.299851</v>
+        <v>62806.299851000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.446194</v>
+        <v>17.446193999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1618.910000</v>
+        <v>1618.91</v>
       </c>
       <c r="BV2" s="1">
-        <v>-830.046000</v>
+        <v>-830.04600000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>62817.678073</v>
+        <v>62817.678073000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.449355</v>
+        <v>17.449355000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.480000</v>
+        <v>1772.48</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1099.590000</v>
+        <v>-1099.5899999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>62828.641145</v>
+        <v>62828.641145000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.452400</v>
+        <v>17.452400000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.390000</v>
+        <v>2192.39</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1749.800000</v>
+        <v>-1749.8</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>62657.275325</v>
+        <v>62657.275325000002</v>
       </c>
       <c r="B3" s="1">
-        <v>17.404799</v>
+        <v>17.404799000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1145.080000</v>
+        <v>1145.08</v>
       </c>
       <c r="D3" s="1">
-        <v>-244.014000</v>
+        <v>-244.01400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>62667.311374</v>
+        <v>62667.311373999997</v>
       </c>
       <c r="G3" s="1">
-        <v>17.407586</v>
+        <v>17.407585999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1164.390000</v>
+        <v>1164.3900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.666000</v>
+        <v>-217.666</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>62677.446130</v>
+        <v>62677.446129999997</v>
       </c>
       <c r="L3" s="1">
-        <v>17.410402</v>
+        <v>17.410402000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1194.930000</v>
+        <v>1194.93</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.892000</v>
+        <v>-152.892</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>62687.671155</v>
+        <v>62687.671155000004</v>
       </c>
       <c r="Q3" s="1">
         <v>17.413242</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.500000</v>
+        <v>1203.5</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.486000</v>
+        <v>-130.48599999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>62697.939829</v>
+        <v>62697.939829000003</v>
       </c>
       <c r="V3" s="1">
-        <v>17.416094</v>
+        <v>17.416094000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1211.130000</v>
+        <v>1211.1300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-109.337000</v>
+        <v>-109.337</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>62708.043834</v>
+        <v>62708.043833999996</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.418901</v>
+        <v>17.418901000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.775400</v>
+        <v>-91.775400000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>62718.605674</v>
+        <v>62718.605673999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>17.421835</v>
+        <v>17.421835000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.830000</v>
+        <v>1223.83</v>
       </c>
       <c r="AH3" s="1">
-        <v>-87.087600</v>
+        <v>-87.087599999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>62729.035021</v>
+        <v>62729.035021000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.424732</v>
+        <v>17.424731999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.910000</v>
+        <v>1230.9100000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.178100</v>
+        <v>-90.178100000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>62739.961427</v>
+        <v>62739.961427000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.427767</v>
+        <v>17.427766999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.068000</v>
+        <v>-102.068</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>62750.991920</v>
+        <v>62750.99192</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.430831</v>
+        <v>17.430831000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.446000</v>
+        <v>-121.446</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>62762.070065</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.433908</v>
+        <v>17.433907999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.011000</v>
+        <v>-139.011</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>62772.992964</v>
+        <v>62772.992963999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.436942</v>
+        <v>17.436941999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.494000</v>
+        <v>-221.494</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>62784.002201</v>
+        <v>62784.002201000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.440001</v>
+        <v>17.440000999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.370000</v>
+        <v>1368.37</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.476000</v>
+        <v>-358.476</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>62795.149253</v>
+        <v>62795.149253000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.443097</v>
+        <v>17.443097000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.394000</v>
+        <v>-580.39400000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>62807.058693</v>
+        <v>62807.058692999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.446405</v>
+        <v>17.446404999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1618.970000</v>
+        <v>1618.97</v>
       </c>
       <c r="BV3" s="1">
-        <v>-830.029000</v>
+        <v>-830.029</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>62817.836792</v>
+        <v>62817.836792000002</v>
       </c>
       <c r="BY3" s="1">
         <v>17.449399</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.320000</v>
+        <v>1772.32</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1099.620000</v>
+        <v>-1099.6199999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>62828.937721</v>
+        <v>62828.937721000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>17.452483</v>
+        <v>17.452483000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2193.630000</v>
+        <v>2193.63</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1750.700000</v>
+        <v>-1750.7</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>62657.627024</v>
+        <v>62657.627024000001</v>
       </c>
       <c r="B4" s="1">
-        <v>17.404896</v>
+        <v>17.404896000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.410000</v>
+        <v>1144.4100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-244.434000</v>
+        <v>-244.434</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>62667.736974</v>
+        <v>62667.736973999999</v>
       </c>
       <c r="G4" s="1">
         <v>17.407705</v>
       </c>
       <c r="H4" s="1">
-        <v>1164.070000</v>
+        <v>1164.07</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.646000</v>
+        <v>-217.64599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>62677.872720</v>
+        <v>62677.872719999999</v>
       </c>
       <c r="L4" s="1">
-        <v>17.410520</v>
+        <v>17.410520000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1194.910000</v>
+        <v>1194.9100000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.780000</v>
+        <v>-152.78</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>62688.009427</v>
+        <v>62688.009426999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.413336</v>
+        <v>17.413336000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.554000</v>
+        <v>-130.554</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>62698.242390</v>
+        <v>62698.242389999999</v>
       </c>
       <c r="V4" s="1">
-        <v>17.416178</v>
+        <v>17.416177999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.270000</v>
+        <v>1211.27</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.314000</v>
+        <v>-109.31399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>62708.381145</v>
+        <v>62708.381144999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.418995</v>
+        <v>17.418994999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.787300</v>
+        <v>-91.787300000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>62718.949866</v>
+        <v>62718.949866000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.421931</v>
+        <v>17.421931000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.810000</v>
+        <v>1223.81</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.028400</v>
+        <v>-87.028400000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>62729.383212</v>
+        <v>62729.383212000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.424829</v>
+        <v>17.424828999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.153000</v>
+        <v>-90.153000000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>62740.679629</v>
+        <v>62740.679628999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.427967</v>
+        <v>17.427966999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1238.870000</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.052000</v>
+        <v>-102.05200000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>62751.358490</v>
+        <v>62751.358489999999</v>
       </c>
       <c r="AU4" s="1">
         <v>17.430933</v>
       </c>
       <c r="AV4" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.452000</v>
+        <v>-121.452</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>62762.429201</v>
+        <v>62762.429200999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.434008</v>
+        <v>17.434007999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.320000</v>
+        <v>1257.32</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.047000</v>
+        <v>-139.047</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>62773.356034</v>
+        <v>62773.356033999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.437043</v>
+        <v>17.437042999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.750000</v>
+        <v>1297.75</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.490000</v>
+        <v>-221.49</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>62784.690115</v>
+        <v>62784.690114999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>17.440192</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.420000</v>
+        <v>1368.42</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.515000</v>
+        <v>-358.51499999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>62795.880852</v>
+        <v>62795.880852000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.443300</v>
+        <v>17.443300000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.680000</v>
+        <v>1484.68</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.381000</v>
+        <v>-580.38099999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>62807.168835</v>
+        <v>62807.168834999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.446436</v>
+        <v>17.446435999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.060000</v>
+        <v>1619.06</v>
       </c>
       <c r="BV4" s="1">
-        <v>-830.039000</v>
+        <v>-830.03899999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>62818.272247</v>
+        <v>62818.272247000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.449520</v>
+        <v>17.44952</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.600000</v>
+        <v>1772.6</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1099.620000</v>
+        <v>-1099.6199999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>62829.468440</v>
+        <v>62829.468439999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.452630</v>
+        <v>17.452629999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2190.670000</v>
+        <v>2190.67</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1750.730000</v>
+        <v>-1750.73</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>62658.055531</v>
+        <v>62658.055530999998</v>
       </c>
       <c r="B5" s="1">
-        <v>17.405015</v>
+        <v>17.405014999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.870000</v>
+        <v>1143.8699999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-244.596000</v>
+        <v>-244.596</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>62668.018175</v>
+        <v>62668.018174999997</v>
       </c>
       <c r="G5" s="1">
-        <v>17.407783</v>
+        <v>17.407782999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.670000</v>
+        <v>1163.67</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.685000</v>
+        <v>-217.685</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>62678.170784</v>
+        <v>62678.170784000002</v>
       </c>
       <c r="L5" s="1">
-        <v>17.410603</v>
+        <v>17.410602999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1194.670000</v>
+        <v>1194.67</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.764000</v>
+        <v>-152.76400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>62688.360100</v>
+        <v>62688.360099999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.413433</v>
+        <v>17.413433000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.430000</v>
+        <v>1203.43</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.523000</v>
+        <v>-130.523</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>62698.581654</v>
+        <v>62698.581654000001</v>
       </c>
       <c r="V5" s="1">
         <v>17.416273</v>
       </c>
       <c r="W5" s="1">
-        <v>1211.240000</v>
+        <v>1211.24</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.370000</v>
+        <v>-109.37</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>62708.730792</v>
+        <v>62708.730792000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.419092</v>
+        <v>17.419091999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.727700</v>
+        <v>-91.727699999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>62719.632857</v>
+        <v>62719.632856999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.422120</v>
+        <v>17.42212</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.890000</v>
+        <v>1223.8900000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-87.012400</v>
+        <v>-87.0124</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>62730.077115</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.425021</v>
+        <v>17.425021000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.900000</v>
+        <v>1230.9000000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.193600</v>
+        <v>-90.193600000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>62741.039198</v>
+        <v>62741.039197999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.428066</v>
+        <v>17.428066000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1238.870000</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.055000</v>
+        <v>-102.05500000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>62751.722333</v>
+        <v>62751.722332999998</v>
       </c>
       <c r="AU5" s="1">
         <v>17.431034</v>
       </c>
       <c r="AV5" s="1">
-        <v>1248.840000</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.456000</v>
+        <v>-121.456</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>62762.789760</v>
+        <v>62762.78976</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.434108</v>
+        <v>17.434107999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.320000</v>
+        <v>1257.32</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.027000</v>
+        <v>-139.02699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>62774.029106</v>
+        <v>62774.029106000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.437230</v>
+        <v>17.43723</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.750000</v>
+        <v>1297.75</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.493000</v>
+        <v>-221.49299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>62785.156354</v>
+        <v>62785.156353999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.440321</v>
+        <v>17.440321000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.484000</v>
+        <v>-358.48399999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>62796.399668</v>
+        <v>62796.399667999998</v>
       </c>
       <c r="BO5" s="1">
         <v>17.443444</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.690000</v>
+        <v>1484.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.427000</v>
+        <v>-580.42700000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>62807.602311</v>
+        <v>62807.602311000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.446556</v>
+        <v>17.446556000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.020000</v>
+        <v>1619.02</v>
       </c>
       <c r="BV5" s="1">
-        <v>-829.940000</v>
+        <v>-829.94</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>62818.696326</v>
+        <v>62818.696325999997</v>
       </c>
       <c r="BY5" s="1">
         <v>17.449638</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.540000</v>
+        <v>1772.54</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1099.610000</v>
+        <v>-1099.6099999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>62830.006631</v>
+        <v>62830.006630999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.452780</v>
+        <v>17.452780000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.580000</v>
+        <v>2192.58</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1752.080000</v>
+        <v>-1752.08</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>62658.331306</v>
       </c>
@@ -1509,285 +1925,285 @@
         <v>17.405092</v>
       </c>
       <c r="C6" s="1">
-        <v>1142.170000</v>
+        <v>1142.17</v>
       </c>
       <c r="D6" s="1">
-        <v>-246.453000</v>
+        <v>-246.453</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>62668.363210</v>
+        <v>62668.363210000003</v>
       </c>
       <c r="G6" s="1">
-        <v>17.407879</v>
+        <v>17.407879000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1164.800000</v>
+        <v>1164.8</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.778000</v>
+        <v>-217.77799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>62678.517027</v>
+        <v>62678.517027000002</v>
       </c>
       <c r="L6" s="1">
-        <v>17.410699</v>
+        <v>17.410699000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1194.780000</v>
+        <v>1194.78</v>
       </c>
       <c r="N6" s="1">
-        <v>-152.644000</v>
+        <v>-152.64400000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>62688.708817</v>
+        <v>62688.708816999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.413530</v>
+        <v>17.413530000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.476000</v>
+        <v>-130.476</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>62698.924886</v>
+        <v>62698.924886000001</v>
       </c>
       <c r="V6" s="1">
-        <v>17.416368</v>
+        <v>17.416367999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1211.280000</v>
+        <v>1211.28</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.336000</v>
+        <v>-109.336</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>62709.425704</v>
+        <v>62709.425704000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.419285</v>
+        <v>17.419284999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.180000</v>
+        <v>1219.18</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.705000</v>
+        <v>-91.704999999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>62719.975111</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.422215</v>
+        <v>17.422215000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.790000</v>
+        <v>1223.79</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.056400</v>
+        <v>-87.056399999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>62730.429771</v>
+        <v>62730.429771000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.425119</v>
+        <v>17.425118999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.940000</v>
+        <v>1230.94</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.168300</v>
+        <v>-90.168300000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>62741.399324</v>
+        <v>62741.399323999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.428166</v>
+        <v>17.428166000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1238.870000</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.056000</v>
+        <v>-102.056</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>62752.399567</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.431222</v>
+        <v>17.431222000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1248.820000</v>
+        <v>1248.82</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.429000</v>
+        <v>-121.429</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>62763.460351</v>
+        <v>62763.460351000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.434295</v>
+        <v>17.434294999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.033000</v>
+        <v>-139.03299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>62774.470316</v>
+        <v>62774.470315999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.437353</v>
+        <v>17.437353000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.720000</v>
+        <v>1297.72</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.497000</v>
+        <v>-221.49700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>62785.546738</v>
+        <v>62785.546737999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.440430</v>
+        <v>17.440429999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.515000</v>
+        <v>-358.51499999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>62796.810355</v>
+        <v>62796.810355000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.443558</v>
+        <v>17.443557999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.670000</v>
+        <v>1484.67</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.421000</v>
+        <v>-580.42100000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>62808.017466</v>
+        <v>62808.017465999998</v>
       </c>
       <c r="BT6" s="1">
         <v>17.446672</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.080000</v>
+        <v>1619.08</v>
       </c>
       <c r="BV6" s="1">
-        <v>-829.925000</v>
+        <v>-829.92499999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>62819.140278</v>
+        <v>62819.140277999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.449761</v>
+        <v>17.449760999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.590000</v>
+        <v>1772.59</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1099.610000</v>
+        <v>-1099.6099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>62830.549224</v>
+        <v>62830.549224000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.452930</v>
+        <v>17.452929999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2192.550000</v>
+        <v>2192.5500000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1749.840000</v>
+        <v>-1749.84</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>62658.672555</v>
+        <v>62658.672554999997</v>
       </c>
       <c r="B7" s="1">
-        <v>17.405187</v>
+        <v>17.405187000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1142.020000</v>
+        <v>1142.02</v>
       </c>
       <c r="D7" s="1">
-        <v>-246.730000</v>
+        <v>-246.73</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>62668.705138</v>
+        <v>62668.705137999998</v>
       </c>
       <c r="G7" s="1">
-        <v>17.407974</v>
+        <v>17.407973999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1163.880000</v>
+        <v>1163.8800000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.780000</v>
+        <v>-217.78</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>62678.860751</v>
@@ -1796,163 +2212,163 @@
         <v>17.410795</v>
       </c>
       <c r="M7" s="1">
-        <v>1194.900000</v>
+        <v>1194.9000000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.740000</v>
+        <v>-152.74</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>62689.404673</v>
+        <v>62689.404672999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.413724</v>
+        <v>17.413723999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.550000</v>
+        <v>1203.55</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.482000</v>
+        <v>-130.482</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>62699.618787</v>
+        <v>62699.618786999999</v>
       </c>
       <c r="V7" s="1">
-        <v>17.416561</v>
+        <v>17.416561000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1211.040000</v>
+        <v>1211.04</v>
       </c>
       <c r="X7" s="1">
-        <v>-109.138000</v>
+        <v>-109.13800000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>62709.772922</v>
+        <v>62709.772921999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.419381</v>
+        <v>17.419381000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.808100</v>
+        <v>-91.808099999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>62720.320809</v>
+        <v>62720.320808999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.422311</v>
+        <v>17.422311000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.850000</v>
+        <v>1223.8499999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.967800</v>
+        <v>-86.967799999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>62730.777499</v>
+        <v>62730.777499000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.425216</v>
+        <v>17.425215999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.178700</v>
+        <v>-90.178700000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>62742.077323</v>
+        <v>62742.077322999998</v>
       </c>
       <c r="AP7" s="1">
         <v>17.428355</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.063000</v>
+        <v>-102.063</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>62752.840509</v>
+        <v>62752.840509000001</v>
       </c>
       <c r="AU7" s="1">
         <v>17.431345</v>
       </c>
       <c r="AV7" s="1">
-        <v>1248.820000</v>
+        <v>1248.82</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.456000</v>
+        <v>-121.456</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>62763.865087</v>
+        <v>62763.865086999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>17.434407</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.011000</v>
+        <v>-139.011</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>62774.830640</v>
+        <v>62774.83064</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.437453</v>
+        <v>17.437453000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.482000</v>
+        <v>-221.482</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>62785.924163</v>
+        <v>62785.924163000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>17.440534</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.508000</v>
+        <v>-358.50799999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>62797.206693</v>
@@ -1961,240 +2377,240 @@
         <v>17.443669</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.422000</v>
+        <v>-580.42200000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>62808.444516</v>
+        <v>62808.444516000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.446790</v>
+        <v>17.44679</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.130000</v>
+        <v>1619.13</v>
       </c>
       <c r="BV7" s="1">
-        <v>-829.798000</v>
+        <v>-829.798</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>62819.570309</v>
+        <v>62819.570309000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.449881</v>
+        <v>17.449881000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.570000</v>
+        <v>1772.57</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1099.620000</v>
+        <v>-1099.6199999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>62831.086887</v>
+        <v>62831.086886999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.453080</v>
+        <v>17.45308</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.850000</v>
+        <v>2190.85</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1752.010000</v>
+        <v>-1752.01</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>62659.016319</v>
+        <v>62659.016319000002</v>
       </c>
       <c r="B8" s="1">
         <v>17.405282</v>
       </c>
       <c r="C8" s="1">
-        <v>1140.820000</v>
+        <v>1140.82</v>
       </c>
       <c r="D8" s="1">
-        <v>-248.534000</v>
+        <v>-248.53399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>62669.395565</v>
+        <v>62669.395564999999</v>
       </c>
       <c r="G8" s="1">
         <v>17.408165</v>
       </c>
       <c r="H8" s="1">
-        <v>1164.670000</v>
+        <v>1164.67</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.302000</v>
+        <v>-217.30199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>62679.554655</v>
       </c>
       <c r="L8" s="1">
-        <v>17.410987</v>
+        <v>17.410986999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.150000</v>
+        <v>1195.1500000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.925000</v>
+        <v>-152.92500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>62689.752900</v>
+        <v>62689.752899999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.413820</v>
+        <v>17.413820000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.550000</v>
+        <v>1203.55</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.594000</v>
+        <v>-130.59399999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>62699.967972</v>
+        <v>62699.967971999999</v>
       </c>
       <c r="V8" s="1">
-        <v>17.416658</v>
+        <v>17.416658000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-109.198000</v>
+        <v>-109.19799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>62710.121605</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.419478</v>
+        <v>17.419478000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.731600</v>
+        <v>-91.7316</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>62720.990904</v>
+        <v>62720.990903999998</v>
       </c>
       <c r="AF8" s="1">
         <v>17.422497</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.800000</v>
+        <v>1223.8</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.923200</v>
+        <v>-86.923199999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>62731.442105</v>
+        <v>62731.442105000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.425401</v>
+        <v>17.425401000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.150600</v>
+        <v>-90.150599999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>62742.507852</v>
+        <v>62742.507852000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.428474</v>
+        <v>17.428474000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1238.850000</v>
+        <v>1238.8499999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.062000</v>
+        <v>-102.062</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>62753.206094</v>
+        <v>62753.206094000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.431446</v>
+        <v>17.431446000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1248.840000</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.428000</v>
+        <v>-121.428</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>62764.253454</v>
+        <v>62764.253453999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.434515</v>
+        <v>17.434515000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.019000</v>
+        <v>-139.01900000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>62775.191233</v>
+        <v>62775.191232999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.437553</v>
+        <v>17.437553000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.474000</v>
+        <v>-221.47399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>62786.345793</v>
@@ -2203,43 +2619,43 @@
         <v>17.440652</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.469000</v>
+        <v>-358.46899999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>62797.629250</v>
+        <v>62797.629249999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.443786</v>
+        <v>17.443785999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.650000</v>
+        <v>1484.65</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.384000</v>
+        <v>-580.38400000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>62808.874579</v>
+        <v>62808.874579000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.446910</v>
+        <v>17.446909999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.110000</v>
+        <v>1619.11</v>
       </c>
       <c r="BV8" s="1">
-        <v>-829.784000</v>
+        <v>-829.78399999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>62820.004276</v>
@@ -2248,467 +2664,467 @@
         <v>17.450001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.520000</v>
+        <v>1772.52</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1099.600000</v>
+        <v>-1099.5999999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>62831.631825</v>
+        <v>62831.631824999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.453231</v>
+        <v>17.453230999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2193.410000</v>
+        <v>2193.41</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1750.790000</v>
+        <v>-1750.79</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>62659.695304</v>
+        <v>62659.695304000001</v>
       </c>
       <c r="B9" s="1">
-        <v>17.405471</v>
+        <v>17.405470999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1140.110000</v>
+        <v>1140.1099999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-250.221000</v>
+        <v>-250.221</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>62669.740283</v>
+        <v>62669.740282999999</v>
       </c>
       <c r="G9" s="1">
         <v>17.408261</v>
       </c>
       <c r="H9" s="1">
-        <v>1164.150000</v>
+        <v>1164.1500000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.056000</v>
+        <v>-218.05600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>62679.897859</v>
+        <v>62679.897858999997</v>
       </c>
       <c r="L9" s="1">
-        <v>17.411083</v>
+        <v>17.411083000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.020000</v>
+        <v>1195.02</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.728000</v>
+        <v>-152.72800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>62690.101056</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.413917</v>
+        <v>17.413917000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.565000</v>
+        <v>-130.565</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>62700.630639</v>
+        <v>62700.630639000003</v>
       </c>
       <c r="V9" s="1">
-        <v>17.416842</v>
+        <v>17.416841999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1211.360000</v>
+        <v>1211.3599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.286000</v>
+        <v>-109.286</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>62710.783732</v>
+        <v>62710.783732000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.419662</v>
+        <v>17.419661999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.825700</v>
+        <v>-91.825699999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>62721.352519</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.422598</v>
+        <v>17.422598000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.650000</v>
+        <v>1223.6500000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.106400</v>
+        <v>-87.106399999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>62731.821050</v>
+        <v>62731.821049999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.425506</v>
+        <v>17.425505999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.940000</v>
+        <v>1230.94</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.171000</v>
+        <v>-90.171000000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>62742.867946</v>
+        <v>62742.867945999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.428574</v>
+        <v>17.428574000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1238.870000</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>62753.570156</v>
+        <v>62753.570156000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.431547</v>
+        <v>17.431546999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1248.810000</v>
+        <v>1248.81</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.439000</v>
+        <v>-121.43899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>62764.610077</v>
+        <v>62764.610076999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>17.434614</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.320000</v>
+        <v>1257.32</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.044000</v>
+        <v>-139.04400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>62775.613860</v>
+        <v>62775.613859999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.437671</v>
+        <v>17.437671000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.469000</v>
+        <v>-221.46899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>62786.672189</v>
+        <v>62786.672188999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>17.440742</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.484000</v>
+        <v>-358.48399999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>62798.035475</v>
+        <v>62798.035474999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.443899</v>
+        <v>17.443898999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.710000</v>
+        <v>1484.71</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.409000</v>
+        <v>-580.40899999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>62809.284778</v>
+        <v>62809.284778000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.447024</v>
+        <v>17.447023999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.150000</v>
+        <v>1619.15</v>
       </c>
       <c r="BV9" s="1">
-        <v>-829.776000</v>
+        <v>-829.77599999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>62820.419955</v>
+        <v>62820.419954999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.450117</v>
+        <v>17.450116999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.510000</v>
+        <v>1772.51</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1099.600000</v>
+        <v>-1099.5999999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>62832.170646</v>
+        <v>62832.170645999999</v>
       </c>
       <c r="CD9" s="1">
         <v>17.453381</v>
       </c>
       <c r="CE9" s="1">
-        <v>2190.870000</v>
+        <v>2190.87</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1750.960000</v>
+        <v>-1750.96</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>62660.039529</v>
+        <v>62660.039529000001</v>
       </c>
       <c r="B10" s="1">
-        <v>17.405567</v>
+        <v>17.405567000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1140.230000</v>
+        <v>1140.23</v>
       </c>
       <c r="D10" s="1">
-        <v>-250.420000</v>
+        <v>-250.42</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>62670.086490</v>
+        <v>62670.086490000002</v>
       </c>
       <c r="G10" s="1">
-        <v>17.408357</v>
+        <v>17.408356999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1164.340000</v>
+        <v>1164.3399999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.175000</v>
+        <v>-218.17500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>62680.248526</v>
+        <v>62680.248526000003</v>
       </c>
       <c r="L10" s="1">
-        <v>17.411180</v>
+        <v>17.411180000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.190000</v>
+        <v>1195.19</v>
       </c>
       <c r="N10" s="1">
-        <v>-152.680000</v>
+        <v>-152.68</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>62690.757791</v>
+        <v>62690.757791000004</v>
       </c>
       <c r="Q10" s="1">
         <v>17.414099</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.480000</v>
+        <v>1203.48</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.467000</v>
+        <v>-130.46700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>62700.997170</v>
+        <v>62700.997170000002</v>
       </c>
       <c r="V10" s="1">
-        <v>17.416944</v>
+        <v>17.416944000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1211.300000</v>
+        <v>1211.3</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.136000</v>
+        <v>-109.136</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>62711.165654</v>
+        <v>62711.165653999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.419768</v>
+        <v>17.419768000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.160000</v>
+        <v>1219.1600000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.643700</v>
+        <v>-91.643699999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>62721.694735</v>
+        <v>62721.694734999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.422693</v>
+        <v>17.422692999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.810000</v>
+        <v>1223.81</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.985700</v>
+        <v>-86.985699999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>62732.179657</v>
+        <v>62732.179657000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.425605</v>
+        <v>17.425605000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.960000</v>
+        <v>1230.96</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.170100</v>
+        <v>-90.170100000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>62743.230522</v>
+        <v>62743.230521999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.428675</v>
+        <v>17.428674999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>62754.000192</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.431667</v>
+        <v>17.431667000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.470000</v>
+        <v>-121.47</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>62765.046557</v>
+        <v>62765.046557000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>17.434735</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.029000</v>
+        <v>-139.029</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>62775.914399</v>
+        <v>62775.914399000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.437754</v>
+        <v>17.437754000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.710000</v>
+        <v>1297.71</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.493000</v>
+        <v>-221.49299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>62787.055536</v>
@@ -2717,437 +3133,437 @@
         <v>17.440849</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.478000</v>
+        <v>-358.47800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>62798.444177</v>
+        <v>62798.444176999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.444012</v>
+        <v>17.444012000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.700000</v>
+        <v>1484.7</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.429000</v>
+        <v>-580.42899999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>62809.717106</v>
+        <v>62809.717105999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.447144</v>
+        <v>17.447144000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.090000</v>
+        <v>1619.09</v>
       </c>
       <c r="BV10" s="1">
-        <v>-829.701000</v>
+        <v>-829.70100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>62820.865829</v>
+        <v>62820.865829000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.450241</v>
+        <v>17.450240999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1772.500000</v>
+        <v>1772.5</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1099.630000</v>
+        <v>-1099.6300000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>62832.724180</v>
+        <v>62832.724179999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.453534</v>
+        <v>17.453534000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2192.540000</v>
+        <v>2192.54</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1752.040000</v>
+        <v>-1752.04</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>62660.379791</v>
+        <v>62660.379790999999</v>
       </c>
       <c r="B11" s="1">
-        <v>17.405661</v>
+        <v>17.405660999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1140.000000</v>
+        <v>1140</v>
       </c>
       <c r="D11" s="1">
-        <v>-251.119000</v>
+        <v>-251.119</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>62670.743721</v>
+        <v>62670.743720999999</v>
       </c>
       <c r="G11" s="1">
-        <v>17.408540</v>
+        <v>17.408539999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1164.670000</v>
+        <v>1164.67</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.929000</v>
+        <v>-217.929</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>62680.903246</v>
+        <v>62680.903246000002</v>
       </c>
       <c r="L11" s="1">
         <v>17.411362</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.150000</v>
+        <v>1195.1500000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.745000</v>
+        <v>-152.745</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>62691.147119</v>
+        <v>62691.147119000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.414208</v>
+        <v>17.414207999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.448000</v>
+        <v>-130.44800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>62701.343692</v>
+        <v>62701.343692000002</v>
       </c>
       <c r="V11" s="1">
-        <v>17.417040</v>
+        <v>17.41704</v>
       </c>
       <c r="W11" s="1">
-        <v>1211.300000</v>
+        <v>1211.3</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.222000</v>
+        <v>-109.22199999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>62711.517354</v>
+        <v>62711.517354000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.419866</v>
+        <v>17.419865999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.793000</v>
+        <v>-91.793000000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>62722.038491</v>
+        <v>62722.038490999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.422788</v>
+        <v>17.422788000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.880000</v>
+        <v>1223.8800000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.952100</v>
+        <v>-86.952100000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>62732.519912</v>
+        <v>62732.519912000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.425700</v>
+        <v>17.425699999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.950000</v>
+        <v>1230.95</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.184200</v>
+        <v>-90.184200000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>62743.655097</v>
+        <v>62743.655097000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.428793</v>
+        <v>17.428792999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1238.850000</v>
+        <v>1238.8499999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.057000</v>
+        <v>-102.057</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>62754.298748</v>
+        <v>62754.298748000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.431750</v>
+        <v>17.431750000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.425000</v>
+        <v>-121.425</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>62765.329810</v>
+        <v>62765.329810000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.434814</v>
+        <v>17.434813999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.029000</v>
+        <v>-139.029</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>62776.273999</v>
+        <v>62776.273998999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.437854</v>
+        <v>17.437854000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.483000</v>
+        <v>-221.483</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>62787.444895</v>
+        <v>62787.444895000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.440957</v>
+        <v>17.440957000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.496000</v>
+        <v>-358.49599999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>62798.841474</v>
+        <v>62798.841474000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.444123</v>
+        <v>17.444123000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.700000</v>
+        <v>1484.7</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.434000</v>
+        <v>-580.43399999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>62810.144307</v>
+        <v>62810.144307000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.447262</v>
+        <v>17.447261999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.170000</v>
+        <v>1619.17</v>
       </c>
       <c r="BV11" s="1">
-        <v>-829.595000</v>
+        <v>-829.59500000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>62821.301351</v>
+        <v>62821.301351000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.450361</v>
+        <v>17.450361000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.440000</v>
+        <v>1772.44</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1099.490000</v>
+        <v>-1099.49</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>62833.250435</v>
+        <v>62833.250435000002</v>
       </c>
       <c r="CD11" s="1">
         <v>17.453681</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.360000</v>
+        <v>2192.36</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1750.000000</v>
+        <v>-1750</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>62661.032551</v>
+        <v>62661.032550999997</v>
       </c>
       <c r="B12" s="1">
         <v>17.405842</v>
       </c>
       <c r="C12" s="1">
-        <v>1140.170000</v>
+        <v>1140.17</v>
       </c>
       <c r="D12" s="1">
-        <v>-250.874000</v>
+        <v>-250.874</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>62671.116186</v>
+        <v>62671.116185999999</v>
       </c>
       <c r="G12" s="1">
-        <v>17.408643</v>
+        <v>17.408643000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.910000</v>
+        <v>1163.9100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.854000</v>
+        <v>-217.85400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>62681.285165</v>
+        <v>62681.285165000001</v>
       </c>
       <c r="L12" s="1">
-        <v>17.411468</v>
+        <v>17.411467999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.090000</v>
+        <v>1195.0899999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.713000</v>
+        <v>-152.71299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>62691.498286</v>
+        <v>62691.498286000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.414305</v>
+        <v>17.414304999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.600000</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.452000</v>
+        <v>-130.452</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>62701.681649</v>
+        <v>62701.681648999998</v>
       </c>
       <c r="V12" s="1">
-        <v>17.417134</v>
+        <v>17.417134000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1211.340000</v>
+        <v>1211.3399999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.307000</v>
+        <v>-109.307</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>62711.866499</v>
+        <v>62711.866499000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>17.419963</v>
+        <v>17.419962999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.882400</v>
+        <v>-91.882400000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>62722.461045</v>
+        <v>62722.461044999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.422906</v>
+        <v>17.422906000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AH12" s="1">
-        <v>-87.091300</v>
+        <v>-87.091300000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>62733.217783</v>
@@ -3156,151 +3572,151 @@
         <v>17.425894</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.950000</v>
+        <v>1230.95</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.162500</v>
+        <v>-90.162499999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>62743.949753</v>
+        <v>62743.949753000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.428875</v>
+        <v>17.428875000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1238.840000</v>
+        <v>1238.8399999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.040000</v>
+        <v>-102.04</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>62754.663308</v>
+        <v>62754.663308000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.431851</v>
+        <v>17.431851000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1248.850000</v>
+        <v>1248.8499999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.453000</v>
+        <v>-121.453</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>62765.684947</v>
+        <v>62765.684947000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.434912</v>
+        <v>17.434912000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.029000</v>
+        <v>-139.029</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>62776.636735</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.437955</v>
+        <v>17.437954999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.750000</v>
+        <v>1297.75</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.501000</v>
+        <v>-221.501</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>62788.194846</v>
+        <v>62788.194845999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.441165</v>
+        <v>17.441165000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.478000</v>
+        <v>-358.47800000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>62799.660865</v>
+        <v>62799.660864999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.444350</v>
+        <v>17.44435</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.680000</v>
+        <v>1484.68</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.432000</v>
+        <v>-580.43200000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>62810.553504</v>
+        <v>62810.553504000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.447376</v>
+        <v>17.447375999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.160000</v>
+        <v>1619.16</v>
       </c>
       <c r="BV12" s="1">
-        <v>-829.632000</v>
+        <v>-829.63199999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>62821.722947</v>
+        <v>62821.722947000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.450479</v>
+        <v>17.450479000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.550000</v>
+        <v>1772.55</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1099.520000</v>
+        <v>-1099.52</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>62834.101107</v>
+        <v>62834.101107000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.453917</v>
+        <v>17.453917000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2193.110000</v>
+        <v>2193.11</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1751.940000</v>
+        <v>-1751.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>62661.405046</v>
       </c>
@@ -3308,495 +3724,495 @@
         <v>17.405946</v>
       </c>
       <c r="C13" s="1">
-        <v>1139.860000</v>
+        <v>1139.8599999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-251.449000</v>
+        <v>-251.44900000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>62671.462399</v>
+        <v>62671.462398999996</v>
       </c>
       <c r="G13" s="1">
-        <v>17.408740</v>
+        <v>17.408740000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1164.400000</v>
+        <v>1164.4000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.096000</v>
+        <v>-218.096</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>62681.628891</v>
       </c>
       <c r="L13" s="1">
-        <v>17.411564</v>
+        <v>17.411563999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1194.910000</v>
+        <v>1194.9100000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.721000</v>
+        <v>-152.721</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>62691.844992</v>
+        <v>62691.844991999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.414401</v>
+        <v>17.414401000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.521000</v>
+        <v>-130.52099999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>62702.106761</v>
+        <v>62702.106761000003</v>
       </c>
       <c r="V13" s="1">
-        <v>17.417252</v>
+        <v>17.417252000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1211.330000</v>
+        <v>1211.33</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.257000</v>
+        <v>-109.25700000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>62712.294051</v>
+        <v>62712.294050999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.420082</v>
+        <v>17.420082000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.894000</v>
+        <v>-91.894000000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>62722.734373</v>
+        <v>62722.734372999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.422982</v>
+        <v>17.422982000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.870000</v>
+        <v>1223.8699999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.088100</v>
+        <v>-87.088099999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>62733.566006</v>
+        <v>62733.566006000001</v>
       </c>
       <c r="AK13" s="1">
         <v>17.425991</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.166000</v>
+        <v>-90.165999999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>62744.309818</v>
+        <v>62744.309818000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.428975</v>
+        <v>17.428975000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1238.870000</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.037000</v>
+        <v>-102.03700000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>62755.029886</v>
+        <v>62755.029885999997</v>
       </c>
       <c r="AU13" s="1">
         <v>17.431953</v>
       </c>
       <c r="AV13" s="1">
-        <v>1248.840000</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.426000</v>
+        <v>-121.426</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>62766.377323</v>
+        <v>62766.377323000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>17.435105</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.320000</v>
+        <v>1257.32</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.022000</v>
+        <v>-139.02199999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>62777.352797</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.438154</v>
+        <v>17.438154000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.507000</v>
+        <v>-221.50700000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>62788.598590</v>
+        <v>62788.598590000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.441277</v>
+        <v>17.441276999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.484000</v>
+        <v>-358.48399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>62800.055220</v>
+        <v>62800.055220000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.444460</v>
+        <v>17.444459999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.670000</v>
+        <v>1484.67</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.421000</v>
+        <v>-580.42100000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>62810.987536</v>
+        <v>62810.987536000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.447497</v>
+        <v>17.447496999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.180000</v>
+        <v>1619.18</v>
       </c>
       <c r="BV13" s="1">
-        <v>-829.493000</v>
+        <v>-829.49300000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>62822.461457</v>
+        <v>62822.461456999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.450684</v>
+        <v>17.450683999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.430000</v>
+        <v>1772.43</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1099.560000</v>
+        <v>-1099.56</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>62834.329730</v>
+        <v>62834.329729999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.453980</v>
+        <v>17.453980000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2193.090000</v>
+        <v>2193.09</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1751.940000</v>
+        <v>-1751.94</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>62661.748741</v>
+        <v>62661.748741000003</v>
       </c>
       <c r="B14" s="1">
-        <v>17.406041</v>
+        <v>17.406040999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1139.830000</v>
+        <v>1139.83</v>
       </c>
       <c r="D14" s="1">
-        <v>-253.578000</v>
+        <v>-253.578</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>62671.810621</v>
+        <v>62671.810620999997</v>
       </c>
       <c r="G14" s="1">
-        <v>17.408836</v>
+        <v>17.408836000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.830000</v>
+        <v>1164.83</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.123000</v>
+        <v>-218.12299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>62681.976587</v>
+        <v>62681.976586999997</v>
       </c>
       <c r="L14" s="1">
-        <v>17.411660</v>
+        <v>17.411660000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.270000</v>
+        <v>1195.27</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.850000</v>
+        <v>-152.85</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>62692.273037</v>
+        <v>62692.273036999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.414520</v>
+        <v>17.41452</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.538000</v>
+        <v>-130.53800000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>62702.378530</v>
+        <v>62702.378530000002</v>
       </c>
       <c r="V14" s="1">
         <v>17.417327</v>
       </c>
       <c r="W14" s="1">
-        <v>1211.280000</v>
+        <v>1211.28</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.103000</v>
+        <v>-109.10299999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>62712.568370</v>
+        <v>62712.568370000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.420158</v>
+        <v>17.420158000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.884300</v>
+        <v>-91.884299999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>62723.077605</v>
+        <v>62723.077604999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.423077</v>
+        <v>17.423076999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH14" s="1">
-        <v>-87.261000</v>
+        <v>-87.260999999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>62733.914166</v>
+        <v>62733.914166000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.426087</v>
+        <v>17.426086999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.950000</v>
+        <v>1230.95</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.188200</v>
+        <v>-90.188199999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>62744.669912</v>
+        <v>62744.669911999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.429075</v>
+        <v>17.429075000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1238.880000</v>
+        <v>1238.8800000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.053000</v>
+        <v>-102.053</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>62755.755197</v>
+        <v>62755.755196999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.432154</v>
+        <v>17.432154000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1248.840000</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.444000</v>
+        <v>-121.444</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>62766.788507</v>
+        <v>62766.788506999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>17.435219</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.023000</v>
+        <v>-139.023</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>62777.720864</v>
+        <v>62777.720864000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.438256</v>
+        <v>17.438255999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.750000</v>
+        <v>1297.75</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.501000</v>
+        <v>-221.501</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>62788.973106</v>
+        <v>62788.973105999998</v>
       </c>
       <c r="BJ14" s="1">
         <v>17.441381</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.512000</v>
+        <v>-358.512</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>62800.785825</v>
+        <v>62800.785824999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.444663</v>
+        <v>17.444662999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.700000</v>
+        <v>1484.7</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.337000</v>
+        <v>-580.33699999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>62811.722577</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.447701</v>
+        <v>17.447700999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.060000</v>
+        <v>1619.06</v>
       </c>
       <c r="BV14" s="1">
-        <v>-829.505000</v>
+        <v>-829.505</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>62822.570114</v>
+        <v>62822.570114000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.450714</v>
+        <v>17.450714000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.540000</v>
+        <v>1772.54</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1099.560000</v>
+        <v>-1099.56</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>62834.848049</v>
@@ -3805,559 +4221,559 @@
         <v>17.454124</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.560000</v>
+        <v>2192.56</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1750.080000</v>
+        <v>-1750.08</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>62662.090520</v>
+        <v>62662.090519999998</v>
       </c>
       <c r="B15" s="1">
         <v>17.406136</v>
       </c>
       <c r="C15" s="1">
-        <v>1139.940000</v>
+        <v>1139.94</v>
       </c>
       <c r="D15" s="1">
-        <v>-254.748000</v>
+        <v>-254.74799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>62672.236184</v>
+        <v>62672.236184000001</v>
       </c>
       <c r="G15" s="1">
-        <v>17.408954</v>
+        <v>17.408954000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1164.400000</v>
+        <v>1164.4000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.832000</v>
+        <v>-217.83199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>62682.406123</v>
+        <v>62682.406123000001</v>
       </c>
       <c r="L15" s="1">
-        <v>17.411779</v>
+        <v>17.411778999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1194.840000</v>
+        <v>1194.8399999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.779000</v>
+        <v>-152.779</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>62692.553806</v>
+        <v>62692.553806000004</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.414598</v>
+        <v>17.414598000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.530000</v>
+        <v>-130.53</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>62702.724271</v>
+        <v>62702.724270999999</v>
       </c>
       <c r="V15" s="1">
-        <v>17.417423</v>
+        <v>17.417422999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.410000</v>
+        <v>1211.4100000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.372000</v>
+        <v>-109.372</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>62712.915042</v>
+        <v>62712.915042000001</v>
       </c>
       <c r="AA15" s="1">
         <v>17.420254</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.670900</v>
+        <v>-91.670900000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>62723.421797</v>
+        <v>62723.421797000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.423173</v>
+        <v>17.423172999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH15" s="1">
-        <v>-87.075600</v>
+        <v>-87.075599999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>62734.609063</v>
+        <v>62734.609063000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.426280</v>
+        <v>17.426279999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.910000</v>
+        <v>1230.9100000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.184700</v>
+        <v>-90.184700000000007</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>62745.390632</v>
+        <v>62745.390632000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.429275</v>
+        <v>17.429275000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.076000</v>
+        <v>-102.07599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>62756.122059</v>
+        <v>62756.122059000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.432256</v>
+        <v>17.432255999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1248.840000</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.447000</v>
+        <v>-121.447</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>62767.149098</v>
+        <v>62767.149098000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>17.435319</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.330000</v>
+        <v>1257.33</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.037000</v>
+        <v>-139.03700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>62778.079932</v>
+        <v>62778.079932000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.438356</v>
+        <v>17.438355999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.770000</v>
+        <v>1297.77</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.473000</v>
+        <v>-221.47300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>62789.654111</v>
+        <v>62789.654111000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>17.441571</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.523000</v>
+        <v>-358.52300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>62801.288237</v>
+        <v>62801.288237000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.444802</v>
+        <v>17.444801999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.760000</v>
+        <v>1484.76</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.445000</v>
+        <v>-580.44500000000005</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>62811.860463</v>
+        <v>62811.860462999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.447739</v>
+        <v>17.447738999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.100000</v>
+        <v>1619.1</v>
       </c>
       <c r="BV15" s="1">
-        <v>-829.399000</v>
+        <v>-829.399</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>62823.017968</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.450838</v>
+        <v>17.450838000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.490000</v>
+        <v>1772.49</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1099.590000</v>
+        <v>-1099.5899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>62835.367362</v>
+        <v>62835.367361999997</v>
       </c>
       <c r="CD15" s="1">
         <v>17.454269</v>
       </c>
       <c r="CE15" s="1">
-        <v>2193.170000</v>
+        <v>2193.17</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1750.450000</v>
+        <v>-1750.45</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>62662.512612</v>
+        <v>62662.512611999999</v>
       </c>
       <c r="B16" s="1">
-        <v>17.406254</v>
+        <v>17.406254000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1140.310000</v>
+        <v>1140.31</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.170000</v>
+        <v>-255.17</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>62672.503993</v>
+        <v>62672.503992999998</v>
       </c>
       <c r="G16" s="1">
         <v>17.409029</v>
       </c>
       <c r="H16" s="1">
-        <v>1164.910000</v>
+        <v>1164.9100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.376000</v>
+        <v>-218.376</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>62682.686868</v>
+        <v>62682.686867999997</v>
       </c>
       <c r="L16" s="1">
-        <v>17.411857</v>
+        <v>17.411857000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1194.760000</v>
+        <v>1194.76</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.842000</v>
+        <v>-152.84200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>62692.899517</v>
+        <v>62692.899516999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.414694</v>
+        <v>17.414694000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.495000</v>
+        <v>-130.495</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>62703.067016</v>
+        <v>62703.067016000001</v>
       </c>
       <c r="V16" s="1">
-        <v>17.417519</v>
+        <v>17.417518999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.170000</v>
+        <v>1211.17</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.284000</v>
+        <v>-109.28400000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>62713.265715</v>
+        <v>62713.265715000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.420352</v>
+        <v>17.420352000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.140000</v>
+        <v>1219.1400000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.756700</v>
+        <v>-91.756699999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>62724.108022</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.423363</v>
+        <v>17.423362999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.880000</v>
+        <v>1223.8800000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.081500</v>
+        <v>-87.081500000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>62734.960725</v>
+        <v>62734.960724999997</v>
       </c>
       <c r="AK16" s="1">
         <v>17.426378</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.920000</v>
+        <v>1230.92</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.150700</v>
+        <v>-90.150700000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>62745.780487</v>
+        <v>62745.780487000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.429383</v>
+        <v>17.429383000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1238.840000</v>
+        <v>1238.8399999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>62756.488585</v>
+        <v>62756.488584999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.432358</v>
+        <v>17.432358000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1248.850000</v>
+        <v>1248.8499999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.460000</v>
+        <v>-121.46</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>62767.820966</v>
+        <v>62767.820965999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>17.435506</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.020000</v>
+        <v>-139.02000000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>62778.757499</v>
+        <v>62778.757498999999</v>
       </c>
       <c r="BE16" s="1">
         <v>17.438544</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.502000</v>
+        <v>-221.50200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>62789.762260</v>
+        <v>62789.762260000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.441601</v>
+        <v>17.441600999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.497000</v>
+        <v>-358.49700000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>62801.705372</v>
+        <v>62801.705371999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.444918</v>
+        <v>17.444918000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.391000</v>
+        <v>-580.39099999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>62812.272640</v>
+        <v>62812.272640000003</v>
       </c>
       <c r="BT16" s="1">
         <v>17.447854</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.050000</v>
+        <v>1619.05</v>
       </c>
       <c r="BV16" s="1">
-        <v>-829.272000</v>
+        <v>-829.27200000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>62823.446532</v>
+        <v>62823.446532000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.450957</v>
+        <v>17.450956999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.570000</v>
+        <v>1772.57</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1099.550000</v>
+        <v>-1099.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>62835.914811</v>
+        <v>62835.914811000002</v>
       </c>
       <c r="CD16" s="1">
         <v>17.454421</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.880000</v>
+        <v>2192.88</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1751.890000</v>
+        <v>-1751.89</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>62662.790367</v>
+        <v>62662.790367000001</v>
       </c>
       <c r="B17" s="1">
-        <v>17.406331</v>
+        <v>17.406331000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>1140.170000</v>
+        <v>1140.17</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.218000</v>
+        <v>-255.21799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>62672.850200</v>
+        <v>62672.850200000001</v>
       </c>
       <c r="G17" s="1">
         <v>17.409125</v>
       </c>
       <c r="H17" s="1">
-        <v>1163.990000</v>
+        <v>1163.99</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.734000</v>
+        <v>-218.73400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>62683.030585</v>
@@ -4366,315 +4782,315 @@
         <v>17.411953</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.250000</v>
+        <v>1195.25</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.855000</v>
+        <v>-152.85499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>62693.255612</v>
+        <v>62693.255612000001</v>
       </c>
       <c r="Q17" s="1">
         <v>17.414793</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.503000</v>
+        <v>-130.50299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>62703.755424</v>
+        <v>62703.755424000003</v>
       </c>
       <c r="V17" s="1">
-        <v>17.417710</v>
+        <v>17.41771</v>
       </c>
       <c r="W17" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.334000</v>
+        <v>-109.334</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>62713.961105</v>
+        <v>62713.961105000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.420545</v>
+        <v>17.420545000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.763300</v>
+        <v>-91.763300000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>62724.451490</v>
+        <v>62724.451489999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.423459</v>
+        <v>17.423459000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.830000</v>
+        <v>1223.83</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.139800</v>
+        <v>-87.139799999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>62735.304948</v>
+        <v>62735.304947999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.426474</v>
+        <v>17.426473999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.169200</v>
+        <v>-90.169200000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>62746.138571</v>
+        <v>62746.138571000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.429483</v>
+        <v>17.429483000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1238.840000</v>
+        <v>1238.8399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.054000</v>
+        <v>-102.054</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>62757.176568</v>
+        <v>62757.176568000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.432549</v>
+        <v>17.432549000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1248.850000</v>
+        <v>1248.8499999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.443000</v>
+        <v>-121.443</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>62768.258153</v>
+        <v>62768.258153000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>17.435627</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.057000</v>
+        <v>-139.05699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>62779.194444</v>
+        <v>62779.194444000001</v>
       </c>
       <c r="BE17" s="1">
         <v>17.438665</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.497000</v>
+        <v>-221.49700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>62790.126268</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.441702</v>
+        <v>17.441701999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.400000</v>
+        <v>1368.4</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.522000</v>
+        <v>-358.52199999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>62802.101681</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.445028</v>
+        <v>17.445028000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.720000</v>
+        <v>1484.72</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.405000</v>
+        <v>-580.40499999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>62812.700356</v>
+        <v>62812.700356000001</v>
       </c>
       <c r="BT17" s="1">
         <v>17.447972</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.040000</v>
+        <v>1619.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-829.330000</v>
+        <v>-829.33</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>62823.878067</v>
+        <v>62823.878066999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.451077</v>
+        <v>17.451077000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.350000</v>
+        <v>1772.35</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1099.590000</v>
+        <v>-1099.5899999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>62836.449134</v>
+        <v>62836.449134000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.454569</v>
+        <v>17.454568999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.390000</v>
+        <v>2192.39</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1750.320000</v>
+        <v>-1750.32</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>62663.133077</v>
+        <v>62663.133076999999</v>
       </c>
       <c r="B18" s="1">
         <v>17.406426</v>
       </c>
       <c r="C18" s="1">
-        <v>1139.780000</v>
+        <v>1139.78</v>
       </c>
       <c r="D18" s="1">
-        <v>-255.545000</v>
+        <v>-255.54499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>62673.193460</v>
+        <v>62673.193460000002</v>
       </c>
       <c r="G18" s="1">
-        <v>17.409220</v>
+        <v>17.409220000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1164.270000</v>
+        <v>1164.27</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.967000</v>
+        <v>-217.96700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>62683.720552</v>
+        <v>62683.720551999999</v>
       </c>
       <c r="L18" s="1">
-        <v>17.412145</v>
+        <v>17.412144999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.170000</v>
+        <v>1195.17</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.955000</v>
+        <v>-152.95500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>62693.951003</v>
+        <v>62693.951003000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.414986</v>
+        <v>17.414985999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.550000</v>
+        <v>1203.55</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.480000</v>
+        <v>-130.47999999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>62704.098189</v>
+        <v>62704.098188999997</v>
       </c>
       <c r="V18" s="1">
-        <v>17.417805</v>
+        <v>17.417805000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.300000</v>
+        <v>-109.3</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>62714.312308</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.420642</v>
+        <v>17.420642000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.160000</v>
+        <v>1219.1600000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.838200</v>
+        <v>-91.838200000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>62724.798724</v>
@@ -4683,527 +5099,527 @@
         <v>17.423555</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.900000</v>
+        <v>1223.9000000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.931000</v>
+        <v>-86.930999999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>62735.962180</v>
+        <v>62735.962180000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.426656</v>
+        <v>17.426656000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.940000</v>
+        <v>1230.94</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.148800</v>
+        <v>-90.148799999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>62746.810645</v>
+        <v>62746.810644999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.429670</v>
+        <v>17.429670000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.047000</v>
+        <v>-102.047</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>62757.581304</v>
+        <v>62757.581303999999</v>
       </c>
       <c r="AU18" s="1">
         <v>17.432661</v>
       </c>
       <c r="AV18" s="1">
-        <v>1248.820000</v>
+        <v>1248.82</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.426000</v>
+        <v>-121.426</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>62768.620751</v>
+        <v>62768.620751000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.435728</v>
+        <v>17.435728000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.011000</v>
+        <v>-139.011</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>62779.555530</v>
+        <v>62779.555529999998</v>
       </c>
       <c r="BE18" s="1">
         <v>17.438765</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.710000</v>
+        <v>1297.71</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.500000</v>
+        <v>-221.5</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>62790.499295</v>
+        <v>62790.499295000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.441805</v>
+        <v>17.441804999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.495000</v>
+        <v>-358.495</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>62802.529228</v>
+        <v>62802.529227999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.445147</v>
+        <v>17.445146999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.384000</v>
+        <v>-580.38400000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>62813.123774</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.448090</v>
+        <v>17.448090000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.000000</v>
+        <v>1619</v>
       </c>
       <c r="BV18" s="1">
-        <v>-829.243000</v>
+        <v>-829.24300000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>62824.290208</v>
+        <v>62824.290207999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.451192</v>
+        <v>17.451191999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.470000</v>
+        <v>1772.47</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1099.410000</v>
+        <v>-1099.4100000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>62836.966464</v>
+        <v>62836.966463999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.454713</v>
+        <v>17.454713000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.990000</v>
+        <v>2190.9899999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1751.040000</v>
+        <v>-1751.04</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>62663.473332</v>
+        <v>62663.473332000001</v>
       </c>
       <c r="B19" s="1">
-        <v>17.406520</v>
+        <v>17.40652</v>
       </c>
       <c r="C19" s="1">
-        <v>1140.010000</v>
+        <v>1140.01</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.279000</v>
+        <v>-255.279</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>62673.882896</v>
+        <v>62673.882896000003</v>
       </c>
       <c r="G19" s="1">
         <v>17.409412</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.960000</v>
+        <v>1164.96</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.363000</v>
+        <v>-217.363</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>62684.066265</v>
+        <v>62684.066265000001</v>
       </c>
       <c r="L19" s="1">
-        <v>17.412241</v>
+        <v>17.412241000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.220000</v>
+        <v>1195.22</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.942000</v>
+        <v>-152.94200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>62694.297223</v>
+        <v>62694.297223000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.415083</v>
+        <v>17.415082999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.535000</v>
+        <v>-130.535</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>62704.439902</v>
+        <v>62704.439901999998</v>
       </c>
       <c r="V19" s="1">
-        <v>17.417900</v>
+        <v>17.417899999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1211.200000</v>
+        <v>1211.2</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.028000</v>
+        <v>-109.02800000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>62714.660961</v>
+        <v>62714.660961000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.420739</v>
+        <v>17.420739000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.667100</v>
+        <v>-91.667100000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>62725.466834</v>
+        <v>62725.466833999999</v>
       </c>
       <c r="AF19" s="1">
         <v>17.423741</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.910000</v>
+        <v>1223.9100000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-87.020900</v>
+        <v>-87.020899999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>62736.352531</v>
+        <v>62736.352530999997</v>
       </c>
       <c r="AK19" s="1">
         <v>17.426765</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.940000</v>
+        <v>1230.94</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.154400</v>
+        <v>-90.154399999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>62747.248644</v>
+        <v>62747.248643999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.429791</v>
+        <v>17.429791000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1238.870000</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>62757.945334</v>
+        <v>62757.945334000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.432763</v>
+        <v>17.432763000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.475000</v>
+        <v>-121.47499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>62768.976361</v>
+        <v>62768.976361000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>17.435827</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.008000</v>
+        <v>-139.00800000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>62779.914665</v>
+        <v>62779.914664999997</v>
       </c>
       <c r="BE19" s="1">
         <v>17.438865</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.493000</v>
+        <v>-221.49299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>62790.938220</v>
+        <v>62790.938219999996</v>
       </c>
       <c r="BJ19" s="1">
         <v>17.441927</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.380000</v>
+        <v>1368.38</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.479000</v>
+        <v>-358.47899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>62802.920571</v>
+        <v>62802.920571000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.445256</v>
+        <v>17.445256000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.620000</v>
+        <v>1484.62</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.367000</v>
+        <v>-580.36699999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>62813.533492</v>
+        <v>62813.533492000002</v>
       </c>
       <c r="BT19" s="1">
         <v>17.448204</v>
       </c>
       <c r="BU19" s="1">
-        <v>1618.990000</v>
+        <v>1618.99</v>
       </c>
       <c r="BV19" s="1">
-        <v>-829.258000</v>
+        <v>-829.25800000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>62824.747022</v>
+        <v>62824.747022000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.451319</v>
+        <v>17.451319000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.360000</v>
+        <v>1772.36</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1099.540000</v>
+        <v>-1099.54</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>62837.486801</v>
+        <v>62837.486800999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.454857</v>
+        <v>17.454857000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2191.830000</v>
+        <v>2191.83</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1752.450000</v>
+        <v>-1752.45</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>62664.157346</v>
       </c>
       <c r="B20" s="1">
-        <v>17.406710</v>
+        <v>17.40671</v>
       </c>
       <c r="C20" s="1">
-        <v>1140.260000</v>
+        <v>1140.26</v>
       </c>
       <c r="D20" s="1">
-        <v>-255.287000</v>
+        <v>-255.28700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>62674.228118</v>
+        <v>62674.228117999999</v>
       </c>
       <c r="G20" s="1">
-        <v>17.409508</v>
+        <v>17.409507999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1165.590000</v>
+        <v>1165.5899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.898000</v>
+        <v>-218.898</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>62684.412439</v>
       </c>
       <c r="L20" s="1">
-        <v>17.412337</v>
+        <v>17.412337000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.130000</v>
+        <v>1195.1300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.699000</v>
+        <v>-152.69900000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>62694.643994</v>
+        <v>62694.643993999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.415179</v>
+        <v>17.415178999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.540000</v>
+        <v>1203.54</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.584000</v>
+        <v>-130.584</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>62705.100078</v>
+        <v>62705.100078000003</v>
       </c>
       <c r="V20" s="1">
-        <v>17.418083</v>
+        <v>17.418082999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.247000</v>
+        <v>-109.247</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>62715.324610</v>
+        <v>62715.324610000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.420924</v>
+        <v>17.420923999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.772200</v>
+        <v>-91.772199999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>62725.834368</v>
+        <v>62725.834368000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.423843</v>
+        <v>17.423843000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.760000</v>
+        <v>1223.76</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.960200</v>
+        <v>-86.9602</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>62736.702178</v>
@@ -5212,1570 +5628,1570 @@
         <v>17.426862</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.950000</v>
+        <v>1230.95</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.162700</v>
+        <v>-90.162700000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>62747.608249</v>
+        <v>62747.608248999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.429891</v>
+        <v>17.429891000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.048000</v>
+        <v>-102.048</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>62758.313399</v>
+        <v>62758.313398999999</v>
       </c>
       <c r="AU20" s="1">
         <v>17.432865</v>
       </c>
       <c r="AV20" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.443000</v>
+        <v>-121.443</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>62769.407879</v>
+        <v>62769.407878999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.435947</v>
+        <v>17.435946999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.028000</v>
+        <v>-139.02799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>62780.343177</v>
+        <v>62780.343177000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.438984</v>
+        <v>17.438984000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.750000</v>
+        <v>1297.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.476000</v>
+        <v>-221.476</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>62791.258173</v>
+        <v>62791.258173000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.442016</v>
+        <v>17.442015999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.478000</v>
+        <v>-358.47800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>62803.342170</v>
+        <v>62803.342170000004</v>
       </c>
       <c r="BO20" s="1">
         <v>17.445373</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.640000</v>
+        <v>1484.64</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.382000</v>
+        <v>-580.38199999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>62813.946142</v>
+        <v>62813.946142000001</v>
       </c>
       <c r="BT20" s="1">
         <v>17.448318</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.930000</v>
+        <v>1618.93</v>
       </c>
       <c r="BV20" s="1">
-        <v>-829.230000</v>
+        <v>-829.23</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>62825.162210</v>
+        <v>62825.162210000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.451434</v>
+        <v>17.451433999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.530000</v>
+        <v>1772.53</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1099.510000</v>
+        <v>-1099.51</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>62838.005580</v>
+        <v>62838.005579999997</v>
       </c>
       <c r="CD20" s="1">
         <v>17.455002</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.390000</v>
+        <v>2191.39</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1752.470000</v>
+        <v>-1752.47</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>62664.500546</v>
+        <v>62664.500546000003</v>
       </c>
       <c r="B21" s="1">
         <v>17.406806</v>
       </c>
       <c r="C21" s="1">
-        <v>1140.230000</v>
+        <v>1140.23</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.318000</v>
+        <v>-255.31800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>62674.570326</v>
+        <v>62674.570326000001</v>
       </c>
       <c r="G21" s="1">
-        <v>17.409603</v>
+        <v>17.409603000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1164.760000</v>
+        <v>1164.76</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.427000</v>
+        <v>-218.42699999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>62685.076123</v>
+        <v>62685.076122999999</v>
       </c>
       <c r="L21" s="1">
-        <v>17.412521</v>
+        <v>17.412521000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.150000</v>
+        <v>1195.1500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.959000</v>
+        <v>-152.959</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>62695.302601</v>
+        <v>62695.302601000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.415362</v>
+        <v>17.415361999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.517000</v>
+        <v>-130.517</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>62705.470588</v>
+        <v>62705.470587999996</v>
       </c>
       <c r="V21" s="1">
-        <v>17.418186</v>
+        <v>17.418185999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1211.210000</v>
+        <v>1211.21</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.410000</v>
+        <v>-109.41</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>62715.706561</v>
+        <v>62715.706560999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.421030</v>
+        <v>17.421029999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.140000</v>
+        <v>1219.1400000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.813000</v>
+        <v>-91.813000000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>62726.181568</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.423939</v>
+        <v>17.423939000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.930000</v>
+        <v>1223.93</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.989200</v>
+        <v>-86.989199999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>62737.052392</v>
+        <v>62737.052391999998</v>
       </c>
       <c r="AK21" s="1">
         <v>17.426959</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.910000</v>
+        <v>1230.9100000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.195900</v>
+        <v>-90.195899999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>62747.970788</v>
+        <v>62747.970787999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.429992</v>
+        <v>17.429991999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.045000</v>
+        <v>-102.045</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>62758.735461</v>
+        <v>62758.735460999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.432982</v>
+        <v>17.432981999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.474000</v>
+        <v>-121.474</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>62769.694103</v>
+        <v>62769.694103000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.436026</v>
+        <v>17.436025999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.022000</v>
+        <v>-139.02199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>62780.639786</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.439067</v>
+        <v>17.439067000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.475000</v>
+        <v>-221.47499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>62791.648490</v>
+        <v>62791.64849</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.442125</v>
+        <v>17.442125000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.370000</v>
+        <v>1368.37</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.483000</v>
+        <v>-358.483</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>62803.740458</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.445483</v>
+        <v>17.445482999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.690000</v>
+        <v>1484.69</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.391000</v>
+        <v>-580.39099999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>62814.364302</v>
+        <v>62814.364302000002</v>
       </c>
       <c r="BT21" s="1">
         <v>17.448435</v>
       </c>
       <c r="BU21" s="1">
-        <v>1618.730000</v>
+        <v>1618.73</v>
       </c>
       <c r="BV21" s="1">
-        <v>-829.091000</v>
+        <v>-829.09100000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>62825.617999</v>
+        <v>62825.617999000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.451561</v>
+        <v>17.451561000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.590000</v>
+        <v>1772.59</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1099.650000</v>
+        <v>-1099.6500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>62838.552668</v>
+        <v>62838.552667999997</v>
       </c>
       <c r="CD21" s="1">
         <v>17.455154</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.990000</v>
+        <v>2190.9899999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1751.500000</v>
+        <v>-1751.5</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>62664.839810</v>
+        <v>62664.839809999998</v>
       </c>
       <c r="B22" s="1">
-        <v>17.406900</v>
+        <v>17.4069</v>
       </c>
       <c r="C22" s="1">
-        <v>1140.440000</v>
+        <v>1140.44</v>
       </c>
       <c r="D22" s="1">
-        <v>-255.413000</v>
+        <v>-255.41300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>62675.227524</v>
+        <v>62675.227524000002</v>
       </c>
       <c r="G22" s="1">
-        <v>17.409785</v>
+        <v>17.409784999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.350000</v>
+        <v>1165.3499999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.629000</v>
+        <v>-218.62899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>62685.451558</v>
+        <v>62685.451558000001</v>
       </c>
       <c r="L22" s="1">
-        <v>17.412625</v>
+        <v>17.412624999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.240000</v>
+        <v>1195.24</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.926000</v>
+        <v>-152.92599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>62695.692491</v>
+        <v>62695.692491000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.415470</v>
+        <v>17.415469999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.493000</v>
+        <v>-130.49299999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>62705.815309</v>
+        <v>62705.815308999998</v>
       </c>
       <c r="V22" s="1">
-        <v>17.418282</v>
+        <v>17.418282000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1211.190000</v>
+        <v>1211.19</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.345000</v>
+        <v>-109.345</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>62716.053262</v>
+        <v>62716.053262000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.421126</v>
+        <v>17.421126000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.845000</v>
+        <v>-91.844999999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>62726.527249</v>
+        <v>62726.527248999999</v>
       </c>
       <c r="AF22" s="1">
         <v>17.424035</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.830000</v>
+        <v>1223.83</v>
       </c>
       <c r="AH22" s="1">
-        <v>-87.076600</v>
+        <v>-87.076599999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>62737.470979</v>
+        <v>62737.470978999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.427075</v>
+        <v>17.427074999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.950000</v>
+        <v>1230.95</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.180800</v>
+        <v>-90.180800000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>62748.395364</v>
+        <v>62748.395364000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.430110</v>
+        <v>17.430109999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1238.860000</v>
+        <v>1238.8599999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.035000</v>
+        <v>-102.035</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>62759.040006</v>
+        <v>62759.040006000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.433067</v>
+        <v>17.433067000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1248.860000</v>
+        <v>1248.8599999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.456000</v>
+        <v>-121.456</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>62770.054663</v>
+        <v>62770.054663000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.436126</v>
+        <v>17.436126000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.029000</v>
+        <v>-139.029</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>62781.000408</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.439167</v>
+        <v>17.439167000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.750000</v>
+        <v>1297.75</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.518000</v>
+        <v>-221.518</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>62792.022971</v>
+        <v>62792.022970999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.442229</v>
+        <v>17.442229000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.350000</v>
+        <v>1368.35</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.507000</v>
+        <v>-358.50700000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>62804.165566</v>
+        <v>62804.165566000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.445602</v>
+        <v>17.445602000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.690000</v>
+        <v>1484.69</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.339000</v>
+        <v>-580.33900000000006</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>62815.196060</v>
+        <v>62815.196060000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.448666</v>
+        <v>17.448665999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.720000</v>
+        <v>1618.72</v>
       </c>
       <c r="BV22" s="1">
-        <v>-829.141000</v>
+        <v>-829.14099999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>62826.064893</v>
+        <v>62826.064893000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.451685</v>
+        <v>17.451685000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.590000</v>
+        <v>1772.59</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1099.600000</v>
+        <v>-1099.5999999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>62839.081900</v>
+        <v>62839.081899999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.455301</v>
+        <v>17.455300999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.610000</v>
+        <v>2192.61</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1752.260000</v>
+        <v>-1752.26</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>62665.492085</v>
+        <v>62665.492084999998</v>
       </c>
       <c r="B23" s="1">
-        <v>17.407081</v>
+        <v>17.407081000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1140.410000</v>
+        <v>1140.4100000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.699000</v>
+        <v>-256.69900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>62675.610467</v>
+        <v>62675.610466999999</v>
       </c>
       <c r="G23" s="1">
-        <v>17.409892</v>
+        <v>17.409891999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.550000</v>
+        <v>1165.55</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.296000</v>
+        <v>-218.29599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>62685.794809</v>
+        <v>62685.794808999999</v>
       </c>
       <c r="L23" s="1">
-        <v>17.412721</v>
+        <v>17.412721000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.130000</v>
+        <v>1195.1300000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.774000</v>
+        <v>-152.774</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>62696.039162</v>
+        <v>62696.039162000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.415566</v>
+        <v>17.415565999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.521000</v>
+        <v>-130.52099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>62706.163499</v>
+        <v>62706.163499000002</v>
       </c>
       <c r="V23" s="1">
-        <v>17.418379</v>
+        <v>17.418379000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1211.210000</v>
+        <v>1211.21</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.201000</v>
+        <v>-109.20099999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>62716.477310</v>
+        <v>62716.477310000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.421244</v>
+        <v>17.421244000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.839000</v>
+        <v>-91.838999999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>62726.949839</v>
+        <v>62726.949839000001</v>
       </c>
       <c r="AF23" s="1">
         <v>17.424153</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.760000</v>
+        <v>1223.76</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.913300</v>
+        <v>-86.913300000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>62737.748274</v>
+        <v>62737.748273999998</v>
       </c>
       <c r="AK23" s="1">
         <v>17.427152</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.960000</v>
+        <v>1230.96</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.191500</v>
+        <v>-90.191500000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>62748.687521</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.430191</v>
+        <v>17.430191000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1238.850000</v>
+        <v>1238.8499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.035000</v>
+        <v>-102.035</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>62759.406053</v>
+        <v>62759.406052999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.433168</v>
+        <v>17.433167999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.445000</v>
+        <v>-121.44499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>62770.414758</v>
+        <v>62770.414757999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.436226</v>
+        <v>17.436226000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.024000</v>
+        <v>-139.024</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>62781.358984</v>
+        <v>62781.358983999999</v>
       </c>
       <c r="BE23" s="1">
         <v>17.439266</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.477000</v>
+        <v>-221.477</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>62792.773417</v>
+        <v>62792.773416999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.442437</v>
+        <v>17.442437000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.480000</v>
+        <v>-358.48</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>62804.558857</v>
+        <v>62804.558857000004</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.445711</v>
+        <v>17.445710999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.720000</v>
+        <v>1484.72</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.426000</v>
+        <v>-580.42600000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>62815.627578</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.448785</v>
+        <v>17.448785000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.700000</v>
+        <v>1618.7</v>
       </c>
       <c r="BV23" s="1">
-        <v>-829.121000</v>
+        <v>-829.12099999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>62826.523197</v>
+        <v>62826.523197000002</v>
       </c>
       <c r="BY23" s="1">
         <v>17.451812</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.440000</v>
+        <v>1772.44</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1099.490000</v>
+        <v>-1099.49</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>62839.923151</v>
+        <v>62839.923151000003</v>
       </c>
       <c r="CD23" s="1">
         <v>17.455534</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.350000</v>
+        <v>2193.35</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1750.420000</v>
+        <v>-1750.42</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>62665.864048</v>
+        <v>62665.864048000003</v>
       </c>
       <c r="B24" s="1">
-        <v>17.407184</v>
+        <v>17.407184000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1140.430000</v>
+        <v>1140.43</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.424000</v>
+        <v>-256.42399999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>62675.952674</v>
       </c>
       <c r="G24" s="1">
-        <v>17.409987</v>
+        <v>17.409987000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1164.910000</v>
+        <v>1164.9100000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.206000</v>
+        <v>-218.20599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>62686.141989</v>
+        <v>62686.141989000003</v>
       </c>
       <c r="L24" s="1">
         <v>17.412817</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.060000</v>
+        <v>1195.06</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.826000</v>
+        <v>-152.82599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>62696.387882</v>
+        <v>62696.387882000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.415663</v>
+        <v>17.415662999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.570000</v>
+        <v>1203.57</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.558000</v>
+        <v>-130.55799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>62706.588572</v>
+        <v>62706.588572000001</v>
       </c>
       <c r="V24" s="1">
-        <v>17.418497</v>
+        <v>17.418496999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.321000</v>
+        <v>-109.321</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>62716.774419</v>
+        <v>62716.774419000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.421326</v>
+        <v>17.421326000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.795600</v>
+        <v>-91.795599999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>62727.224396</v>
+        <v>62727.224395999998</v>
       </c>
       <c r="AF24" s="1">
         <v>17.424229</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.780000</v>
+        <v>1223.78</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.253600</v>
+        <v>-87.253600000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>62738.096929</v>
+        <v>62738.096928999999</v>
       </c>
       <c r="AK24" s="1">
         <v>17.427249</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.174400</v>
+        <v>-90.174400000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>62749.040162</v>
+        <v>62749.040161999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.430289</v>
+        <v>17.430288999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1238.880000</v>
+        <v>1238.8800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.072000</v>
+        <v>-102.072</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>62759.768628</v>
+        <v>62759.768627999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.433269</v>
+        <v>17.433268999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1248.840000</v>
+        <v>1248.8399999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.436000</v>
+        <v>-121.43600000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>62771.130485</v>
+        <v>62771.130485000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>17.436425</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.330000</v>
+        <v>1257.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.034000</v>
+        <v>-139.03399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>62782.083640</v>
+        <v>62782.083639999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.439468</v>
+        <v>17.439468000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.481000</v>
+        <v>-221.48099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>62793.147400</v>
+        <v>62793.147400000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.442541</v>
+        <v>17.442540999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.350000</v>
+        <v>1368.35</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.527000</v>
+        <v>-358.52699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>62804.977977</v>
+        <v>62804.977977000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.445827</v>
+        <v>17.445827000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.660000</v>
+        <v>1484.66</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.364000</v>
+        <v>-580.36400000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>62816.037771</v>
+        <v>62816.037771000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.448899</v>
+        <v>17.448899000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.640000</v>
+        <v>1618.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-829.164000</v>
+        <v>-829.16399999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>62827.289547</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.452025</v>
+        <v>17.452024999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1772.490000</v>
+        <v>1772.49</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1099.430000</v>
+        <v>-1099.43</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>62840.117050</v>
+        <v>62840.117050000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.455588</v>
+        <v>17.455587999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.320000</v>
+        <v>2191.3200000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1749.820000</v>
+        <v>-1749.82</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>62666.210753</v>
+        <v>62666.210752999999</v>
       </c>
       <c r="B25" s="1">
-        <v>17.407281</v>
+        <v>17.407281000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1141.020000</v>
+        <v>1141.02</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.327000</v>
+        <v>-257.327</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>62676.296432</v>
+        <v>62676.296432000003</v>
       </c>
       <c r="G25" s="1">
-        <v>17.410082</v>
+        <v>17.410081999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.150000</v>
+        <v>1165.1500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.632000</v>
+        <v>-218.63200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>62686.564613</v>
+        <v>62686.564613000002</v>
       </c>
       <c r="L25" s="1">
-        <v>17.412935</v>
+        <v>17.412935000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.060000</v>
+        <v>1195.06</v>
       </c>
       <c r="N25" s="1">
-        <v>-152.851000</v>
+        <v>-152.851</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>62696.819367</v>
+        <v>62696.819366999996</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.415783</v>
+        <v>17.415783000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.554000</v>
+        <v>-130.554</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>62706.867849</v>
+        <v>62706.867849000002</v>
       </c>
       <c r="V25" s="1">
         <v>17.418574</v>
       </c>
       <c r="W25" s="1">
-        <v>1211.240000</v>
+        <v>1211.24</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.404000</v>
+        <v>-109.404</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>62717.122636</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.421423</v>
+        <v>17.421423000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.698800</v>
+        <v>-91.698800000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>62727.568383</v>
+        <v>62727.568382999998</v>
       </c>
       <c r="AF25" s="1">
         <v>17.424325</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.780000</v>
+        <v>1223.78</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.008500</v>
+        <v>-87.008499999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>62738.445126</v>
+        <v>62738.445125999999</v>
       </c>
       <c r="AK25" s="1">
         <v>17.427346</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.950000</v>
+        <v>1230.95</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.162500</v>
+        <v>-90.162499999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>62749.639189</v>
+        <v>62749.639189000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.430455</v>
+        <v>17.430454999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1238.870000</v>
+        <v>1238.8699999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>62760.498275</v>
+        <v>62760.498274999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.433472</v>
+        <v>17.433471999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1248.820000</v>
+        <v>1248.82</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.453000</v>
+        <v>-121.453</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>62771.490087</v>
+        <v>62771.490086999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>17.436525</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.040000</v>
+        <v>-139.04</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>62782.470518</v>
+        <v>62782.470518000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.439575</v>
+        <v>17.439575000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.730000</v>
+        <v>1297.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.502000</v>
+        <v>-221.50200000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>62793.522872</v>
+        <v>62793.522872000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.442645</v>
+        <v>17.442644999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.390000</v>
+        <v>1368.39</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.502000</v>
+        <v>-358.50200000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>62805.685303</v>
+        <v>62805.685302999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.446024</v>
+        <v>17.446024000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.710000</v>
+        <v>1484.71</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.399000</v>
+        <v>-580.399</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>62816.488137</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.449024</v>
+        <v>17.449024000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.570000</v>
+        <v>1618.57</v>
       </c>
       <c r="BV25" s="1">
-        <v>-829.103000</v>
+        <v>-829.10299999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>62827.403626</v>
+        <v>62827.403625999999</v>
       </c>
       <c r="BY25" s="1">
         <v>17.452057</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.520000</v>
+        <v>1772.52</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1099.700000</v>
+        <v>-1099.7</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>62840.638875</v>
+        <v>62840.638874999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>17.455733</v>
+        <v>17.455732999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2193.170000</v>
+        <v>2193.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1752.060000</v>
+        <v>-1752.06</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>62666.773743</v>
+        <v>62666.773742999998</v>
       </c>
       <c r="B26" s="1">
-        <v>17.407437</v>
+        <v>17.407437000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1141.110000</v>
+        <v>1141.1099999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.694000</v>
+        <v>-257.69400000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>62676.712270</v>
+        <v>62676.712270000004</v>
       </c>
       <c r="G26" s="1">
-        <v>17.410198</v>
+        <v>17.410198000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1165.430000</v>
+        <v>1165.43</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.210000</v>
+        <v>-218.21</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>62686.831926</v>
+        <v>62686.831925999999</v>
       </c>
       <c r="L26" s="1">
-        <v>17.413009</v>
+        <v>17.413008999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1194.960000</v>
+        <v>1194.96</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.765000</v>
+        <v>-152.76499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>62697.097623</v>
+        <v>62697.097623000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.415860</v>
+        <v>17.415859999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.530000</v>
+        <v>1203.53</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.574000</v>
+        <v>-130.57400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>62707.210586</v>
+        <v>62707.210586000001</v>
       </c>
       <c r="V26" s="1">
-        <v>17.418670</v>
+        <v>17.418669999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1211.170000</v>
+        <v>1211.17</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.245000</v>
+        <v>-109.245</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>62717.472320</v>
+        <v>62717.472320000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.421520</v>
+        <v>17.421520000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.704400</v>
+        <v>-91.704400000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>62727.910622</v>
+        <v>62727.910622000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.424420</v>
+        <v>17.424420000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.810000</v>
+        <v>1223.81</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.993300</v>
+        <v>-86.993300000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>62739.143983</v>
+        <v>62739.143983000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.427540</v>
+        <v>17.42754</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.930000</v>
+        <v>1230.93</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.173700</v>
+        <v>-90.173699999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>62749.774243</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.430493</v>
+        <v>17.430492999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1238.850000</v>
+        <v>1238.8499999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.011000</v>
+        <v>-102.011</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>62760.891075</v>
@@ -6784,120 +7200,121 @@
         <v>17.433581</v>
       </c>
       <c r="AV26" s="1">
-        <v>1248.830000</v>
+        <v>1248.83</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.457000</v>
+        <v>-121.45699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>62771.847237</v>
+        <v>62771.847237000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.436624</v>
+        <v>17.436623999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.300000</v>
+        <v>1257.3</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.015000</v>
+        <v>-139.01499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>62783.139662</v>
+        <v>62783.139662000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.439761</v>
+        <v>17.439761000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.740000</v>
+        <v>1297.74</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.461000</v>
+        <v>-221.46100000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>62794.208375</v>
+        <v>62794.208375000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>17.442836</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.470000</v>
+        <v>-358.47</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>62805.795879</v>
+        <v>62805.795878999998</v>
       </c>
       <c r="BO26" s="1">
         <v>17.446054</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.690000</v>
+        <v>1484.69</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.364000</v>
+        <v>-580.36400000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>62816.868074</v>
+        <v>62816.868073999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.449130</v>
+        <v>17.44913</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.550000</v>
+        <v>1618.55</v>
       </c>
       <c r="BV26" s="1">
-        <v>-829.140000</v>
+        <v>-829.14</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>62827.830154</v>
+        <v>62827.830154000003</v>
       </c>
       <c r="BY26" s="1">
         <v>17.452175</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.540000</v>
+        <v>1772.54</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1099.560000</v>
+        <v>-1099.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>62841.176505</v>
+        <v>62841.176505000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.455882</v>
+        <v>17.455881999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.900000</v>
+        <v>2191.9</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1750.160000</v>
+        <v>-1750.16</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>